--- a/ig/ch-emed/StructureDefinition-ch-emed-medicationrequest-list.xlsx
+++ b/ig/ch-emed/StructureDefinition-ch-emed-medicationrequest-list.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16T19:08:44+00:00</t>
+    <t>2024-12-17T21:35:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
-    <t>HL7 Switzerland (https://www.hl7.ch/(WORK))</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/(work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -1510,7 +1510,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ch-dosage-4:For split dosage timing event and dose/rate are required {sequence.exists() implies (timing.repeat.when.exists() and doseAndRate.dose.exists())}ch-dosage-3:Patient instruction/free text dosage instruction, timing or as needed has to be specified {patientInstruction.exists() or timing.exists() or asNeeded.exists()}</t>
+ch-dosage-4:For split dosage timing event and dose/rate are required {sequence.exists() implies (timing.repeat.when.exists() and doseAndRate.dose.exists())}ch-dosage-3:Patient instruction/free text dosage instruction, or timing and dose/rate has to be specified {patientInstruction.exists() or (timing.exists() and doseAndRate.exists())}</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction:additionalEntry</t>

--- a/ig/ch-emed/StructureDefinition-ch-emed-medicationrequest-list.xlsx
+++ b/ig/ch-emed/StructureDefinition-ch-emed-medicationrequest-list.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>6.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T21:35:32+00:00</t>
+    <t>2025-05-22T07:37:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
-    <t>HL7 Switzerland (https://www.hl7.ch/(work))</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/(Work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -1480,7 +1480,7 @@
     <t>How the medication should be taken</t>
   </si>
   <si>
-    <t>Indicates how the medication is/was taken or should be taken by the patient.</t>
+    <t>Indicates how the medication is to be used by the patient.</t>
   </si>
   <si>
     <t>There are examples where a medication request may include the option of an oral dose or an Intravenous or Intramuscular dose.  For example, "Ondansetron 8mg orally or IV twice a day as needed for nausea" or "Compazine® (prochlorperazine) 5-10mg PO or 25mg PR bid prn nausea or vomiting".  In these cases, two medication requests would be created that could be grouped together.  The decision on which dose and route of administration to use is based on the patient's condition at the time the dose is needed.</t>
@@ -1493,7 +1493,10 @@
     <t>closed</t>
   </si>
   <si>
-    <t>.outboundRelationship[typeCode=COMP].target[classCode=SBADM, moodCode=INT]</t>
+    <t>Request.occurrence[x]</t>
+  </si>
+  <si>
+    <t>see dosageInstruction mapping</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction:baseEntry</t>
@@ -1507,10 +1510,6 @@
   </si>
   <si>
     <t>Base entry of the dosage instruction</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ch-dosage-4:For split dosage timing event and dose/rate are required {sequence.exists() implies (timing.repeat.when.exists() and doseAndRate.dose.exists())}ch-dosage-3:Patient instruction/free text dosage instruction, or timing and dose/rate has to be specified {patientInstruction.exists() or (timing.exists() and doseAndRate.exists())}</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction:additionalEntry</t>
@@ -2190,17 +2189,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="64.06640625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="60.28515625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="24.30078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="54.92578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="51.68359375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="20.83203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="87.99609375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="75.44140625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2209,27 +2208,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="161.5859375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="71.296875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="59.37890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="138.53125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="61.125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="50.90625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="128.41796875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="245.42578125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="110.09375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -9328,13 +9327,13 @@
         <v>103</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>83</v>
+        <v>470</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>83</v>
@@ -9345,13 +9344,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>463</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D62" t="s" s="2">
         <v>83</v>
@@ -9373,10 +9372,10 @@
         <v>83</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M62" t="s" s="2">
         <v>466</v>
@@ -9444,16 +9443,16 @@
         <v>83</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>475</v>
+        <v>103</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>83</v>
+        <v>470</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>83</v>
@@ -9566,13 +9565,13 @@
         <v>103</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>83</v>
+        <v>470</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>83</v>

--- a/ig/ch-emed/StructureDefinition-ch-emed-medicationrequest-list.xlsx
+++ b/ig/ch-emed/StructureDefinition-ch-emed-medicationrequest-list.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3313" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3016" uniqueCount="541">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.0.0-ballot</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T07:37:19+00:00</t>
+    <t>2025-12-16T11:14:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -276,8 +276,8 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}ch-dosage-medreq:If one dosage element is present, it should not have a sequence number. 
-              If more than one dosage element is present, the base entry has the sequence number 1. {(dosageInstruction.count() &gt; 1 implies dosageInstruction.where($this.conformsTo('http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-dosage-medicationrequest') and sequence = 1).exists()) 
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}ch-dosage-medreq:If one dosage element is present, it SHALL NOT have a sequence number. 
+              If more than one dosage element is present, the base entry SHALL have the sequence number 1. {(dosageInstruction.count() &gt; 1 implies dosageInstruction.where($this.conformsTo('http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-dosage-medicationrequest') and sequence = 1).exists()) 
          and (dosageInstruction.count() = 1 implies dosageInstruction.single().sequence.exists().not())}</t>
   </si>
   <si>
@@ -376,7 +376,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -533,7 +533,7 @@
     <t>MedicationRequest.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier
+    <t xml:space="preserve">Identifier {http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-uuid-identifier}
 </t>
   </si>
   <si>
@@ -561,238 +561,46 @@
     <t>ORC-2-Placer Order Number / ORC-3-Filler Order Number</t>
   </si>
   <si>
-    <t>MedicationRequest.identifier.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>MedicationRequest.identifier.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>MedicationRequest.identifier.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+    <t>MedicationRequest.status</t>
+  </si>
+  <si>
+    <t>active | on-hold | cancelled | completed | entered-in-error | stopped | draft | unknown</t>
+  </si>
+  <si>
+    <t>A code specifying the current state of the order.  Generally, this will be active or completed state.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
   </si>
   <si>
     <t>required</t>
   </si>
   <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>MedicationRequest.identifier.type</t>
+    <t>A coded concept specifying the state of the prescribing event. Describes the lifecycle of the prescription.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medicationrequest-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Request.status</t>
+  </si>
+  <si>
+    <t>no mapping</t>
+  </si>
+  <si>
+    <t>.statusCode</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>MedicationRequest.statusReason</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
-  </si>
-  <si>
-    <t>Identifier.type</t>
-  </si>
-  <si>
-    <t>CX.5</t>
-  </si>
-  <si>
-    <t>MedicationRequest.identifier.system</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>urn:ietf:rfc:3986</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>II.root or Role.id.root</t>
-  </si>
-  <si>
-    <t>CX.4 / EI-2-4</t>
-  </si>
-  <si>
-    <t>MedicationRequest.identifier.value</t>
-  </si>
-  <si>
-    <t>Identifier value as UUID</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
-  </si>
-  <si>
-    <t>CX.1 / EI.1</t>
-  </si>
-  <si>
-    <t>MedicationRequest.identifier.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
-  </si>
-  <si>
-    <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>Role.effectiveTime or implied by context</t>
-  </si>
-  <si>
-    <t>CX.7 + CX.8</t>
-  </si>
-  <si>
-    <t>MedicationRequest.identifier.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
-  </si>
-  <si>
-    <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
-  </si>
-  <si>
-    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
-  </si>
-  <si>
-    <t>MedicationRequest.status</t>
-  </si>
-  <si>
-    <t>active | on-hold | cancelled | completed | entered-in-error | stopped | draft | unknown</t>
-  </si>
-  <si>
-    <t>A code specifying the current state of the order.  Generally, this will be active or completed state.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
-  </si>
-  <si>
-    <t>A coded concept specifying the state of the prescribing event. Describes the lifecycle of the prescription.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medicationrequest-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Request.status</t>
-  </si>
-  <si>
-    <t>no mapping</t>
-  </si>
-  <si>
-    <t>.statusCode</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>MedicationRequest.statusReason</t>
-  </si>
-  <si>
     <t>Reason for current status</t>
   </si>
   <si>
@@ -808,7 +616,7 @@
     <t>Identifies the reasons for a given status.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/medicationrequest-status-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/medicationrequest-status-reason|4.0.1</t>
   </si>
   <si>
     <t>Request.statusReason</t>
@@ -863,7 +671,7 @@
     <t>A coded concept identifying the category of medication request.  For example, where the medication is to be consumed or administered, or the type of medication treatment.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/medicationrequest-category</t>
+    <t>http://hl7.org/fhir/ValueSet/medicationrequest-category|4.0.1</t>
   </si>
   <si>
     <t>Message/Body/NewRx/MedicationPrescribed/Directions@@ -923,7 +731,7 @@
   </si>
   <si>
     <t>boolean
-Reference(Patient|Practitioner|PractitionerRole|RelatedPerson|Organization)</t>
+Reference(Patient|4.0.1|Practitioner|4.0.1|PractitionerRole|4.0.1|RelatedPerson|4.0.1|Organization|4.0.1)</t>
   </si>
   <si>
     <t>Reported rather than primary record</t>
@@ -954,7 +762,7 @@
     <t>A coded concept identifying substance or product that can be ordered.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/medication-codes|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">type:$this}
@@ -1031,7 +839,35 @@
     <t>MedicationRequest.subject.id</t>
   </si>
   <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>MedicationRequest.subject.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
   </si>
   <si>
     <t>MedicationRequest.subject.reference</t>
@@ -1066,16 +902,23 @@
     <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
   </si>
   <si>
+    <t>extensible</t>
+  </si>
+  <si>
     <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
   </si>
   <si>
     <t>Reference.type</t>
   </si>
   <si>
     <t>MedicationRequest.subject.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
   </si>
   <si>
     <t>Logical reference, when literal reference is not known</t>
@@ -1114,7 +957,7 @@
     <t>MedicationRequest.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -1142,7 +985,7 @@
     <t>MedicationRequest.supportingInformation</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1226,7 +1069,7 @@
     <t>MedicationRequest.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|Patient|Device|RelatedPerson|CareTeam)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1|Patient|4.0.1|Device|4.0.1|RelatedPerson|4.0.1|CareTeam|4.0.1)
 </t>
   </si>
   <si>
@@ -1260,7 +1103,7 @@
     <t>Identifies the type of individual that is desired to administer the medication.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/performer-role</t>
+    <t>http://hl7.org/fhir/ValueSet/performer-role|4.0.1</t>
   </si>
   <si>
     <t>Request.performerType</t>
@@ -1272,7 +1115,7 @@
     <t>MedicationRequest.recorder</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1)
 </t>
   </si>
   <si>
@@ -1303,7 +1146,7 @@
     <t>A coded concept indicating why the medication was ordered.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-code</t>
+    <t>http://hl7.org/fhir/ValueSet/condition-code|4.0.1</t>
   </si>
   <si>
     <t>Request.reasonCode</t>
@@ -1324,7 +1167,7 @@
     <t>MedicationRequest.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|Observation)
+    <t xml:space="preserve">Reference(Condition|4.0.1|Observation|4.0.1)
 </t>
   </si>
   <si>
@@ -1374,7 +1217,7 @@
     <t>MedicationRequest.basedOn</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|MedicationRequest|ServiceRequest|ImmunizationRecommendation)
+    <t xml:space="preserve">Reference(CarePlan|4.0.1|MedicationRequest|4.0.1|ServiceRequest|4.0.1|ImmunizationRecommendation|4.0.1)
 </t>
   </si>
   <si>
@@ -1423,7 +1266,7 @@
     <t>Identifies the overall pattern of medication administratio.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/medicationrequest-course-of-therapy</t>
+    <t>http://hl7.org/fhir/ValueSet/medicationrequest-course-of-therapy|4.0.1</t>
   </si>
   <si>
     <t>Act.code where classCode = LIST and moodCode = EVN</t>
@@ -1432,7 +1275,7 @@
     <t>MedicationRequest.insurance</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Coverage|ClaimResponse)
+    <t xml:space="preserve">Reference(Coverage|4.0.1|ClaimResponse|4.0.1)
 </t>
   </si>
   <si>
@@ -1594,7 +1437,7 @@
     <t>MedicationRequest.dispenseRequest.initialFill.quantity</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
 </t>
   </si>
   <si>
@@ -1635,6 +1478,10 @@
     <t>MedicationRequest.dispenseRequest.validityPeriod</t>
   </si>
   <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
     <t>Period of validity of the prescription</t>
   </si>
   <si>
@@ -1717,6 +1564,10 @@
     <t>MedicationRequest.dispenseRequest.performer</t>
   </si>
   <si>
+    <t xml:space="preserve">Reference(Organization|4.0.1)
+</t>
+  </si>
+  <si>
     <t>Intended dispenser</t>
   </si>
   <si>
@@ -1807,7 +1658,7 @@
     <t>MedicationRequest.priorPrescription</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationRequest)
+    <t xml:space="preserve">Reference(MedicationRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -1830,7 +1681,7 @@
 Drug Utilization Review (DUR)Alert</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DetectedIssue)
+    <t xml:space="preserve">Reference(DetectedIssue|4.0.1)
 </t>
   </si>
   <si>
@@ -1849,7 +1700,7 @@
     <t>MedicationRequest.eventHistory</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Provenance)
+    <t xml:space="preserve">Reference(Provenance|4.0.1)
 </t>
   </si>
   <si>
@@ -2180,7 +2031,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO89"/>
+  <dimension ref="A1:AO81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2199,7 +2050,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="75.44140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="107.140625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2208,7 +2059,7 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
@@ -3884,7 +3735,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>91</v>
@@ -3893,21 +3744,23 @@
         <v>83</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>83</v>
@@ -3932,13 +3785,13 @@
         <v>83</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>83</v>
+        <v>178</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>83</v>
+        <v>179</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>83</v>
+        <v>180</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>83</v>
@@ -3956,10 +3809,10 @@
         <v>83</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>91</v>
@@ -3968,19 +3821,19 @@
         <v>83</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>83</v>
+        <v>181</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>83</v>
+        <v>182</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>83</v>
+        <v>184</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>83</v>
@@ -3988,21 +3841,21 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>158</v>
+        <v>83</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>83</v>
@@ -4014,16 +3867,16 @@
         <v>83</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>136</v>
+        <v>186</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -4049,52 +3902,52 @@
         <v>83</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>83</v>
+        <v>190</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>83</v>
+        <v>191</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>83</v>
+        <v>192</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>183</v>
+        <v>83</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>83</v>
+        <v>193</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>83</v>
@@ -4105,10 +3958,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4116,7 +3969,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>91</v>
@@ -4134,17 +3987,15 @@
         <v>111</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>189</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>83</v>
       </c>
@@ -4168,13 +4019,13 @@
         <v>83</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>83</v>
@@ -4192,10 +4043,10 @@
         <v>83</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>91</v>
@@ -4207,27 +4058,27 @@
         <v>103</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>83</v>
+        <v>201</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>83</v>
+        <v>203</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>134</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4238,7 +4089,7 @@
         <v>81</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>83</v>
@@ -4247,23 +4098,21 @@
         <v>83</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>200</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>83</v>
       </c>
@@ -4287,13 +4136,13 @@
         <v>83</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>83</v>
@@ -4317,7 +4166,7 @@
         <v>81</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>83</v>
@@ -4329,24 +4178,24 @@
         <v>83</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>83</v>
+        <v>210</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>83</v>
+        <v>203</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>205</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4354,7 +4203,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>91</v>
@@ -4369,68 +4218,64 @@
         <v>92</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>210</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>211</v>
+        <v>83</v>
       </c>
       <c r="S19" t="s" s="2">
         <v>83</v>
       </c>
       <c r="T19" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF19" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="U19" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V19" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W19" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>81</v>
@@ -4445,27 +4290,27 @@
         <v>103</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>83</v>
+        <v>217</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>83</v>
+        <v>219</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>215</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4473,7 +4318,7 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>91</v>
@@ -4482,22 +4327,22 @@
         <v>83</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>175</v>
+        <v>221</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4511,43 +4356,43 @@
         <v>83</v>
       </c>
       <c r="T20" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF20" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="U20" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V20" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W20" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X20" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y20" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>81</v>
@@ -4568,21 +4413,21 @@
         <v>83</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>223</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4605,13 +4450,13 @@
         <v>92</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4662,7 +4507,7 @@
         <v>83</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>81</v>
@@ -4683,13 +4528,13 @@
         <v>83</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>230</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22">
@@ -4705,7 +4550,7 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>91</v>
@@ -4755,34 +4600,32 @@
         <v>83</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>83</v>
+        <v>190</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>83</v>
+        <v>236</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>83</v>
+        <v>237</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="AC22" s="2"/>
       <c r="AD22" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>91</v>
@@ -4794,35 +4637,37 @@
         <v>103</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>83</v>
+        <v>239</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>83</v>
+        <v>240</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>83</v>
+        <v>242</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="C23" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="D23" t="s" s="2">
         <v>83</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>91</v>
@@ -4831,22 +4676,22 @@
         <v>83</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>111</v>
+        <v>246</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4872,13 +4717,13 @@
         <v>83</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>190</v>
+        <v>83</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>243</v>
+        <v>83</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>244</v>
+        <v>83</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>83</v>
@@ -4896,7 +4741,7 @@
         <v>83</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>91</v>
@@ -4911,27 +4756,27 @@
         <v>103</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>83</v>
+        <v>243</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4939,7 +4784,7 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>91</v>
@@ -4951,10 +4796,10 @@
         <v>83</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>196</v>
+        <v>249</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>250</v>
@@ -4989,13 +4834,13 @@
         <v>83</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>253</v>
+        <v>83</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>254</v>
+        <v>83</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>255</v>
+        <v>83</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>83</v>
@@ -5013,10 +4858,10 @@
         <v>83</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>91</v>
@@ -5028,19 +4873,19 @@
         <v>103</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AM24" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="AL24" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM24" t="s" s="2">
+      <c r="AO24" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AO24" t="s" s="2">
-        <v>83</v>
       </c>
     </row>
     <row r="25">
@@ -5056,7 +4901,7 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>91</v>
@@ -5065,23 +4910,21 @@
         <v>83</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>111</v>
+        <v>259</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N25" t="s" s="2">
         <v>261</v>
       </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>83</v>
@@ -5106,55 +4949,55 @@
         <v>83</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>190</v>
+        <v>83</v>
       </c>
       <c r="Y25" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF25" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="Z25" t="s" s="2">
+      <c r="AG25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="AA25" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>265</v>
-      </c>
       <c r="AN25" t="s" s="2">
-        <v>266</v>
+        <v>83</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>83</v>
@@ -5162,14 +5005,14 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>83</v>
+        <v>158</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -5188,16 +5031,16 @@
         <v>83</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>196</v>
+        <v>136</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>270</v>
+        <v>161</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5223,31 +5066,31 @@
         <v>83</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>253</v>
+        <v>83</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>271</v>
+        <v>83</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>272</v>
+        <v>83</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>83</v>
+        <v>267</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>81</v>
@@ -5259,19 +5102,19 @@
         <v>83</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>273</v>
+        <v>83</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>266</v>
+        <v>83</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>83</v>
@@ -5279,10 +5122,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5290,7 +5133,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>91</v>
@@ -5305,15 +5148,17 @@
         <v>92</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>111</v>
+        <v>259</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>83</v>
@@ -5338,13 +5183,13 @@
         <v>83</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>190</v>
+        <v>83</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>278</v>
+        <v>83</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>279</v>
+        <v>83</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>83</v>
@@ -5362,7 +5207,7 @@
         <v>83</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>81</v>
@@ -5371,22 +5216,22 @@
         <v>91</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>83</v>
+        <v>274</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>280</v>
+        <v>83</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>281</v>
+        <v>134</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>282</v>
+        <v>83</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>83</v>
@@ -5394,10 +5239,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5414,22 +5259,22 @@
         <v>83</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>284</v>
+        <v>105</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5455,13 +5300,13 @@
         <v>83</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>83</v>
+        <v>279</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>83</v>
+        <v>280</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>83</v>
+        <v>281</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>83</v>
@@ -5479,7 +5324,7 @@
         <v>83</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>81</v>
@@ -5500,7 +5345,7 @@
         <v>83</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>288</v>
+        <v>134</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>83</v>
@@ -5511,10 +5356,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5537,15 +5382,17 @@
         <v>92</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>286</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>83</v>
@@ -5594,7 +5441,7 @@
         <v>83</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>81</v>
@@ -5615,7 +5462,7 @@
         <v>83</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>83</v>
@@ -5626,10 +5473,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5637,7 +5484,7 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>91</v>
@@ -5652,16 +5499,16 @@
         <v>92</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>295</v>
+        <v>259</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5687,32 +5534,34 @@
         <v>83</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>253</v>
+        <v>83</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>299</v>
+        <v>83</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>300</v>
+        <v>83</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="AC30" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="AD30" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>294</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>91</v>
@@ -5724,31 +5573,29 @@
         <v>103</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>302</v>
+        <v>83</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>303</v>
+        <v>83</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>304</v>
+        <v>134</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>305</v>
+        <v>83</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>306</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>308</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
         <v>83</v>
       </c>
@@ -5766,19 +5613,19 @@
         <v>83</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5828,10 +5675,10 @@
         <v>83</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>91</v>
@@ -5843,27 +5690,27 @@
         <v>103</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AO31" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="AO31" t="s" s="2">
-        <v>306</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5871,10 +5718,10 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>83</v>
@@ -5883,20 +5730,18 @@
         <v>83</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>315</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>83</v>
@@ -5945,13 +5790,13 @@
         <v>83</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>83</v>
@@ -5960,27 +5805,27 @@
         <v>103</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>317</v>
+        <v>83</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>320</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5988,7 +5833,7 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>91</v>
@@ -6000,16 +5845,16 @@
         <v>83</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>175</v>
+        <v>311</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>176</v>
+        <v>312</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>177</v>
+        <v>313</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -6060,7 +5905,7 @@
         <v>83</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>178</v>
+        <v>310</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>81</v>
@@ -6072,41 +5917,41 @@
         <v>83</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>83</v>
+        <v>314</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>83</v>
+        <v>315</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>179</v>
+        <v>316</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>83</v>
+        <v>317</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>83</v>
+        <v>318</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>158</v>
+        <v>83</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>83</v>
@@ -6115,20 +5960,18 @@
         <v>83</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>136</v>
+        <v>320</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>181</v>
+        <v>321</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>83</v>
@@ -6165,43 +6008,43 @@
         <v>83</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>183</v>
+        <v>83</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>184</v>
+        <v>319</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>83</v>
+        <v>323</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>179</v>
+        <v>255</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>83</v>
+        <v>324</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>83</v>
@@ -6209,10 +6052,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6220,7 +6063,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>91</v>
@@ -6232,20 +6075,18 @@
         <v>83</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>175</v>
+        <v>259</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>324</v>
+        <v>260</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>326</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>83</v>
@@ -6294,7 +6135,7 @@
         <v>83</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>327</v>
+        <v>262</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>81</v>
@@ -6303,10 +6144,10 @@
         <v>91</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>328</v>
+        <v>83</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>83</v>
@@ -6315,7 +6156,7 @@
         <v>83</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>134</v>
+        <v>263</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>83</v>
@@ -6326,21 +6167,21 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>83</v>
+        <v>158</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>83</v>
@@ -6349,19 +6190,19 @@
         <v>83</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>330</v>
+        <v>265</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>331</v>
+        <v>266</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>332</v>
+        <v>161</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6387,43 +6228,43 @@
         <v>83</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>201</v>
+        <v>83</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>333</v>
+        <v>83</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>334</v>
+        <v>83</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>83</v>
+        <v>267</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>335</v>
+        <v>268</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>83</v>
@@ -6432,7 +6273,7 @@
         <v>83</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>134</v>
+        <v>263</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>83</v>
@@ -6443,10 +6284,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6454,7 +6295,7 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>91</v>
@@ -6469,16 +6310,16 @@
         <v>92</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>165</v>
+        <v>259</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>337</v>
+        <v>270</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>338</v>
+        <v>271</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>339</v>
+        <v>272</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6528,7 +6369,7 @@
         <v>83</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>340</v>
+        <v>273</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>81</v>
@@ -6537,7 +6378,7 @@
         <v>91</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>83</v>
+        <v>274</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>103</v>
@@ -6549,7 +6390,7 @@
         <v>83</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>341</v>
+        <v>134</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>83</v>
@@ -6560,10 +6401,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6586,16 +6427,16 @@
         <v>92</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>175</v>
+        <v>105</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>343</v>
+        <v>276</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>344</v>
+        <v>277</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>345</v>
+        <v>278</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6621,13 +6462,13 @@
         <v>83</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>83</v>
+        <v>279</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>83</v>
+        <v>280</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>83</v>
+        <v>281</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>83</v>
@@ -6645,7 +6486,7 @@
         <v>83</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>346</v>
+        <v>282</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>81</v>
@@ -6677,10 +6518,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6700,19 +6541,19 @@
         <v>83</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>348</v>
+        <v>284</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>349</v>
+        <v>285</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>350</v>
+        <v>286</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>351</v>
+        <v>287</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6762,7 +6603,7 @@
         <v>83</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>347</v>
+        <v>288</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>81</v>
@@ -6777,27 +6618,27 @@
         <v>103</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>352</v>
+        <v>83</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>246</v>
+        <v>83</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>353</v>
+        <v>289</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>354</v>
+        <v>83</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>355</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>356</v>
+        <v>330</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>356</v>
+        <v>330</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6808,7 +6649,7 @@
         <v>81</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>83</v>
@@ -6817,18 +6658,20 @@
         <v>83</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>357</v>
+        <v>259</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>358</v>
+        <v>291</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>83</v>
@@ -6877,13 +6720,13 @@
         <v>83</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>356</v>
+        <v>294</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>83</v>
@@ -6892,16 +6735,16 @@
         <v>103</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>360</v>
+        <v>83</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>361</v>
+        <v>134</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>354</v>
+        <v>83</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>83</v>
@@ -6909,10 +6752,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>362</v>
+        <v>331</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>362</v>
+        <v>331</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6920,7 +6763,7 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>91</v>
@@ -6932,16 +6775,16 @@
         <v>83</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>363</v>
+        <v>332</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>364</v>
+        <v>333</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>365</v>
+        <v>334</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6992,7 +6835,7 @@
         <v>83</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>362</v>
+        <v>331</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>81</v>
@@ -7007,27 +6850,27 @@
         <v>103</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>367</v>
+        <v>83</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>368</v>
+        <v>336</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>369</v>
+        <v>337</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>370</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>371</v>
+        <v>338</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>371</v>
+        <v>338</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7035,7 +6878,7 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>91</v>
@@ -7050,15 +6893,17 @@
         <v>92</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>372</v>
+        <v>186</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>373</v>
+        <v>339</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>83</v>
@@ -7083,13 +6928,13 @@
         <v>83</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>83</v>
+        <v>190</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>83</v>
+        <v>342</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>83</v>
+        <v>343</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>83</v>
@@ -7107,7 +6952,7 @@
         <v>83</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>371</v>
+        <v>338</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>81</v>
@@ -7122,16 +6967,16 @@
         <v>103</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>375</v>
+        <v>344</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>318</v>
+        <v>345</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>376</v>
+        <v>83</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>83</v>
@@ -7139,10 +6984,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>377</v>
+        <v>346</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>377</v>
+        <v>346</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7165,13 +7010,13 @@
         <v>83</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>175</v>
+        <v>347</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>176</v>
+        <v>348</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>177</v>
+        <v>349</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7222,7 +7067,7 @@
         <v>83</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>178</v>
+        <v>346</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
@@ -7234,7 +7079,7 @@
         <v>83</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>83</v>
@@ -7243,10 +7088,10 @@
         <v>83</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>179</v>
+        <v>350</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>83</v>
+        <v>351</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>83</v>
@@ -7254,14 +7099,14 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>378</v>
+        <v>352</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>378</v>
+        <v>352</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>158</v>
+        <v>83</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7280,16 +7125,16 @@
         <v>83</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>136</v>
+        <v>186</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>181</v>
+        <v>353</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>182</v>
+        <v>354</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>161</v>
+        <v>355</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7315,31 +7160,31 @@
         <v>83</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>83</v>
+        <v>190</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>83</v>
+        <v>356</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>83</v>
+        <v>357</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>183</v>
+        <v>83</v>
       </c>
       <c r="AD44" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>184</v>
+        <v>352</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>81</v>
@@ -7351,30 +7196,30 @@
         <v>83</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>83</v>
+        <v>358</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>83</v>
+        <v>359</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>179</v>
+        <v>360</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>83</v>
+        <v>361</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>83</v>
+        <v>362</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7382,10 +7227,10 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>83</v>
@@ -7394,19 +7239,19 @@
         <v>83</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>175</v>
+        <v>364</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>324</v>
+        <v>365</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>325</v>
+        <v>366</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>326</v>
+        <v>367</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7456,31 +7301,31 @@
         <v>83</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>327</v>
+        <v>363</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>328</v>
+        <v>83</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>83</v>
+        <v>368</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>83</v>
+        <v>182</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>134</v>
+        <v>369</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>83</v>
+        <v>361</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>83</v>
@@ -7488,10 +7333,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7502,7 +7347,7 @@
         <v>81</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>83</v>
@@ -7514,17 +7359,15 @@
         <v>92</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>105</v>
+        <v>371</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>330</v>
+        <v>372</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>332</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>83</v>
@@ -7549,13 +7392,13 @@
         <v>83</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>201</v>
+        <v>83</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>333</v>
+        <v>83</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>334</v>
+        <v>83</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>83</v>
@@ -7573,13 +7416,13 @@
         <v>83</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>335</v>
+        <v>370</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>83</v>
@@ -7588,13 +7431,13 @@
         <v>103</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>83</v>
+        <v>374</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>134</v>
+        <v>375</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>83</v>
@@ -7605,10 +7448,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7619,7 +7462,7 @@
         <v>81</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>83</v>
@@ -7631,17 +7474,15 @@
         <v>92</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>165</v>
+        <v>105</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>337</v>
+        <v>377</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>83</v>
@@ -7690,13 +7531,13 @@
         <v>83</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>340</v>
+        <v>376</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>83</v>
@@ -7711,7 +7552,7 @@
         <v>83</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>341</v>
+        <v>375</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>83</v>
@@ -7722,10 +7563,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7736,7 +7577,7 @@
         <v>81</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>83</v>
@@ -7748,17 +7589,15 @@
         <v>92</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>175</v>
+        <v>380</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>343</v>
+        <v>381</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>345</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>83</v>
@@ -7807,13 +7646,13 @@
         <v>83</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>346</v>
+        <v>379</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>83</v>
@@ -7822,13 +7661,13 @@
         <v>103</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>83</v>
+        <v>383</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>134</v>
+        <v>384</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>83</v>
@@ -7839,10 +7678,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7862,19 +7701,21 @@
         <v>83</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>384</v>
+        <v>284</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>388</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>83</v>
       </c>
@@ -7922,7 +7763,7 @@
         <v>83</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>81</v>
@@ -7937,16 +7778,16 @@
         <v>103</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>389</v>
+        <v>83</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>83</v>
@@ -7954,10 +7795,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7977,19 +7818,19 @@
         <v>83</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8015,13 +7856,13 @@
         <v>83</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>253</v>
+        <v>190</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>83</v>
@@ -8039,7 +7880,7 @@
         <v>83</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
@@ -8054,7 +7895,7 @@
         <v>103</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>396</v>
+        <v>83</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>83</v>
@@ -8085,7 +7926,7 @@
         <v>81</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>83</v>
@@ -8160,7 +8001,7 @@
         <v>81</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>83</v>
@@ -8169,16 +8010,16 @@
         <v>103</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>83</v>
+        <v>402</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>403</v>
+        <v>83</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>83</v>
@@ -8212,17 +8053,15 @@
         <v>83</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>196</v>
+        <v>405</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N52" t="s" s="2">
         <v>407</v>
       </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>83</v>
@@ -8247,13 +8086,13 @@
         <v>83</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>253</v>
+        <v>83</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>408</v>
+        <v>83</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>409</v>
+        <v>83</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>83</v>
@@ -8286,27 +8125,27 @@
         <v>103</v>
       </c>
       <c r="AK52" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AM52" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="AL52" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>412</v>
-      </c>
       <c r="AN52" t="s" s="2">
-        <v>413</v>
+        <v>83</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>414</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8314,7 +8153,7 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>82</v>
@@ -8329,16 +8168,16 @@
         <v>83</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8376,19 +8215,17 @@
         <v>83</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="AC53" s="2"/>
       <c r="AD53" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>83</v>
+        <v>417</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>81</v>
@@ -8403,16 +8240,16 @@
         <v>103</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>246</v>
+        <v>83</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>413</v>
+        <v>83</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>83</v>
@@ -8420,21 +8257,23 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="C54" s="2"/>
+        <v>411</v>
+      </c>
+      <c r="C54" t="s" s="2">
+        <v>421</v>
+      </c>
       <c r="D54" t="s" s="2">
         <v>83</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>83</v>
@@ -8443,18 +8282,20 @@
         <v>83</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="L54" t="s" s="2">
-        <v>424</v>
-      </c>
       <c r="M54" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>414</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>415</v>
+      </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>83</v>
@@ -8503,7 +8344,7 @@
         <v>83</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>81</v>
@@ -8518,13 +8359,13 @@
         <v>103</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>83</v>
@@ -8535,12 +8376,14 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="C55" s="2"/>
+        <v>411</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>425</v>
+      </c>
       <c r="D55" t="s" s="2">
         <v>83</v>
       </c>
@@ -8558,18 +8401,20 @@
         <v>83</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>105</v>
+        <v>426</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>414</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>415</v>
+      </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>83</v>
@@ -8618,7 +8463,7 @@
         <v>83</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
@@ -8633,13 +8478,13 @@
         <v>103</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>83</v>
+        <v>418</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>83</v>
@@ -8650,10 +8495,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8664,7 +8509,7 @@
         <v>81</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>83</v>
@@ -8673,16 +8518,16 @@
         <v>83</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8733,13 +8578,13 @@
         <v>83</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>83</v>
@@ -8748,13 +8593,13 @@
         <v>103</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>435</v>
+        <v>83</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>83</v>
+        <v>432</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>83</v>
@@ -8765,10 +8610,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8788,21 +8633,19 @@
         <v>83</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>165</v>
+        <v>259</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>438</v>
+        <v>260</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>439</v>
+        <v>261</v>
       </c>
       <c r="N57" s="2"/>
-      <c r="O57" t="s" s="2">
-        <v>440</v>
-      </c>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>83</v>
       </c>
@@ -8850,7 +8693,7 @@
         <v>83</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>437</v>
+        <v>262</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>81</v>
@@ -8862,16 +8705,16 @@
         <v>83</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>441</v>
+        <v>83</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>442</v>
+        <v>263</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>83</v>
@@ -8882,21 +8725,21 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>83</v>
+        <v>158</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>83</v>
@@ -8908,16 +8751,16 @@
         <v>83</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>196</v>
+        <v>136</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>444</v>
+        <v>265</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>445</v>
+        <v>266</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>446</v>
+        <v>161</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8943,13 +8786,13 @@
         <v>83</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>253</v>
+        <v>83</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>447</v>
+        <v>83</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>448</v>
+        <v>83</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>83</v>
@@ -8967,19 +8810,19 @@
         <v>83</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>443</v>
+        <v>268</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>83</v>
@@ -8988,7 +8831,7 @@
         <v>83</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>449</v>
+        <v>263</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>83</v>
@@ -8999,14 +8842,14 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>83</v>
+        <v>437</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -9019,22 +8862,26 @@
         <v>83</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>451</v>
+        <v>136</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
+        <v>439</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>83</v>
       </c>
@@ -9082,7 +8929,7 @@
         <v>83</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>81</v>
@@ -9094,16 +8941,16 @@
         <v>83</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>454</v>
+        <v>83</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>455</v>
+        <v>134</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>83</v>
@@ -9114,10 +8961,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9128,7 +8975,7 @@
         <v>81</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>83</v>
@@ -9140,15 +8987,17 @@
         <v>83</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>457</v>
+        <v>429</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>443</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>444</v>
+      </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>83</v>
@@ -9197,13 +9046,13 @@
         <v>83</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>83</v>
@@ -9212,13 +9061,13 @@
         <v>103</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>460</v>
+        <v>83</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>461</v>
+        <v>83</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>83</v>
@@ -9229,10 +9078,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9240,10 +9089,10 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>83</v>
@@ -9255,17 +9104,15 @@
         <v>83</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>464</v>
+        <v>259</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>465</v>
+        <v>260</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>467</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>83</v>
@@ -9302,38 +9149,40 @@
         <v>83</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="AC61" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="AD61" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>469</v>
+        <v>83</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>463</v>
+        <v>262</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>470</v>
+        <v>83</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>471</v>
+        <v>263</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>83</v>
@@ -9344,23 +9193,21 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>472</v>
+        <v>447</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="C62" t="s" s="2">
-        <v>473</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>83</v>
+        <v>158</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>83</v>
@@ -9372,16 +9219,16 @@
         <v>83</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>474</v>
+        <v>136</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>475</v>
+        <v>265</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>466</v>
+        <v>266</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>467</v>
+        <v>161</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9431,7 +9278,7 @@
         <v>83</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>463</v>
+        <v>268</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>81</v>
@@ -9443,16 +9290,16 @@
         <v>83</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>470</v>
+        <v>83</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>471</v>
+        <v>263</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>83</v>
@@ -9463,16 +9310,14 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>476</v>
+        <v>448</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="C63" t="s" s="2">
-        <v>477</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>83</v>
+        <v>437</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9485,24 +9330,26 @@
         <v>83</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>478</v>
+        <v>136</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>479</v>
+        <v>438</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>466</v>
+        <v>439</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="O63" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>83</v>
       </c>
@@ -9550,7 +9397,7 @@
         <v>83</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>463</v>
+        <v>440</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>81</v>
@@ -9562,16 +9409,16 @@
         <v>83</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>470</v>
+        <v>83</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>471</v>
+        <v>134</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>83</v>
@@ -9582,10 +9429,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>480</v>
+        <v>449</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>480</v>
+        <v>449</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9608,13 +9455,13 @@
         <v>83</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>481</v>
+        <v>450</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>482</v>
+        <v>451</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>483</v>
+        <v>452</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9665,7 +9512,7 @@
         <v>83</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>480</v>
+        <v>449</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>81</v>
@@ -9683,10 +9530,10 @@
         <v>83</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>484</v>
+        <v>83</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>485</v>
+        <v>453</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>83</v>
@@ -9697,10 +9544,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>486</v>
+        <v>454</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>486</v>
+        <v>454</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9723,13 +9570,13 @@
         <v>83</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>175</v>
+        <v>455</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>176</v>
+        <v>456</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>177</v>
+        <v>457</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9780,7 +9627,7 @@
         <v>83</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>178</v>
+        <v>454</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>81</v>
@@ -9792,7 +9639,7 @@
         <v>83</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>83</v>
@@ -9801,7 +9648,7 @@
         <v>83</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>179</v>
+        <v>458</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>83</v>
@@ -9812,21 +9659,21 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>487</v>
+        <v>459</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>487</v>
+        <v>459</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>158</v>
+        <v>83</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>83</v>
@@ -9838,17 +9685,15 @@
         <v>83</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>136</v>
+        <v>455</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>181</v>
+        <v>460</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>83</v>
@@ -9897,19 +9742,19 @@
         <v>83</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>184</v>
+        <v>459</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>83</v>
@@ -9918,7 +9763,7 @@
         <v>83</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>179</v>
+        <v>458</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>83</v>
@@ -9929,45 +9774,45 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>488</v>
+        <v>462</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>488</v>
+        <v>462</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>489</v>
+        <v>83</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>136</v>
+        <v>463</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>490</v>
+        <v>464</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>491</v>
+        <v>465</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>161</v>
+        <v>466</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>162</v>
+        <v>467</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>83</v>
@@ -10016,28 +9861,28 @@
         <v>83</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>492</v>
+        <v>462</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>83</v>
+        <v>468</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>134</v>
+        <v>469</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>83</v>
@@ -10048,10 +9893,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>493</v>
+        <v>470</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>493</v>
+        <v>470</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10074,16 +9919,16 @@
         <v>83</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>494</v>
+        <v>472</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>495</v>
+        <v>473</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>496</v>
+        <v>474</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10133,7 +9978,7 @@
         <v>83</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>493</v>
+        <v>470</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>81</v>
@@ -10151,24 +9996,24 @@
         <v>83</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>83</v>
+        <v>475</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>497</v>
+        <v>476</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>83</v>
+        <v>477</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>498</v>
+        <v>478</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>498</v>
+        <v>478</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10191,13 +10036,13 @@
         <v>83</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>175</v>
+        <v>450</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>176</v>
+        <v>479</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>177</v>
+        <v>480</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10248,7 +10093,7 @@
         <v>83</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>178</v>
+        <v>478</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>81</v>
@@ -10260,41 +10105,41 @@
         <v>83</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>83</v>
+        <v>481</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>179</v>
+        <v>482</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>83</v>
+        <v>483</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>158</v>
+        <v>83</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>83</v>
@@ -10306,16 +10151,16 @@
         <v>83</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>136</v>
+        <v>455</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>181</v>
+        <v>485</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>182</v>
+        <v>486</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>161</v>
+        <v>487</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10365,28 +10210,28 @@
         <v>83</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>184</v>
+        <v>484</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>83</v>
+        <v>488</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>179</v>
+        <v>489</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>83</v>
@@ -10397,46 +10242,42 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>489</v>
+        <v>83</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>136</v>
+        <v>491</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>493</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>83</v>
       </c>
@@ -10484,19 +10325,19 @@
         <v>83</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>83</v>
@@ -10505,10 +10346,10 @@
         <v>83</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>134</v>
+        <v>494</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>83</v>
+        <v>351</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>83</v>
@@ -10516,10 +10357,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10542,13 +10383,13 @@
         <v>83</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>502</v>
+        <v>429</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10599,7 +10440,7 @@
         <v>83</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>81</v>
@@ -10617,10 +10458,10 @@
         <v>83</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>83</v>
+        <v>498</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>83</v>
@@ -10631,10 +10472,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10657,13 +10498,13 @@
         <v>83</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>507</v>
+        <v>259</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>508</v>
+        <v>260</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>509</v>
+        <v>261</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10714,7 +10555,7 @@
         <v>83</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>506</v>
+        <v>262</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>81</v>
@@ -10726,7 +10567,7 @@
         <v>83</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>83</v>
@@ -10735,7 +10576,7 @@
         <v>83</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>510</v>
+        <v>263</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>83</v>
@@ -10746,21 +10587,21 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>83</v>
+        <v>158</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>83</v>
@@ -10772,15 +10613,17 @@
         <v>83</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>507</v>
+        <v>136</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>512</v>
+        <v>265</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="N74" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>83</v>
@@ -10829,19 +10672,19 @@
         <v>83</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>511</v>
+        <v>268</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>83</v>
@@ -10850,7 +10693,7 @@
         <v>83</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>510</v>
+        <v>263</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>83</v>
@@ -10861,45 +10704,45 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>83</v>
+        <v>437</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>225</v>
+        <v>136</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>515</v>
+        <v>438</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>516</v>
+        <v>439</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>517</v>
+        <v>161</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>518</v>
+        <v>162</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>83</v>
@@ -10948,28 +10791,28 @@
         <v>83</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>514</v>
+        <v>440</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>519</v>
+        <v>83</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>520</v>
+        <v>134</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>83</v>
@@ -10980,10 +10823,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>521</v>
+        <v>503</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>521</v>
+        <v>503</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10991,7 +10834,7 @@
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>91</v>
@@ -11006,16 +10849,16 @@
         <v>83</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>522</v>
+        <v>186</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>523</v>
+        <v>504</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>524</v>
+        <v>505</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>525</v>
+        <v>506</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -11041,34 +10884,32 @@
         <v>83</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>83</v>
+        <v>190</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>83</v>
+        <v>507</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>83</v>
+        <v>508</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AB76" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="AC76" s="2"/>
       <c r="AD76" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>83</v>
+        <v>417</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>521</v>
+        <v>503</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>91</v>
@@ -11083,26 +10924,28 @@
         <v>83</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>526</v>
+        <v>498</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>527</v>
+        <v>509</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AO76" t="s" s="2">
-        <v>528</v>
+        <v>510</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>529</v>
+        <v>511</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="C77" s="2"/>
+        <v>503</v>
+      </c>
+      <c r="C77" t="s" s="2">
+        <v>512</v>
+      </c>
       <c r="D77" t="s" s="2">
         <v>83</v>
       </c>
@@ -11123,15 +10966,17 @@
         <v>83</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>502</v>
+        <v>186</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>530</v>
+        <v>504</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="N77" s="2"/>
+        <v>505</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>506</v>
+      </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>83</v>
@@ -11156,13 +11001,11 @@
         <v>83</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="Y77" s="2"/>
       <c r="Z77" t="s" s="2">
-        <v>83</v>
+        <v>508</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>83</v>
@@ -11180,10 +11023,10 @@
         <v>83</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>529</v>
+        <v>503</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>91</v>
@@ -11198,24 +11041,24 @@
         <v>83</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>532</v>
+        <v>498</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>533</v>
+        <v>509</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>534</v>
+        <v>510</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>535</v>
+        <v>513</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>535</v>
+        <v>513</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11238,17 +11081,15 @@
         <v>83</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>507</v>
+        <v>186</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>536</v>
+        <v>514</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>538</v>
-      </c>
+        <v>515</v>
+      </c>
+      <c r="N78" s="2"/>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>83</v>
@@ -11273,13 +11114,13 @@
         <v>83</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>83</v>
+        <v>190</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>83</v>
+        <v>516</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>83</v>
+        <v>517</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>83</v>
@@ -11297,7 +11138,7 @@
         <v>83</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>535</v>
+        <v>513</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>81</v>
@@ -11315,24 +11156,24 @@
         <v>83</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>539</v>
+        <v>518</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>540</v>
+        <v>519</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AO78" t="s" s="2">
-        <v>83</v>
+        <v>520</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>541</v>
+        <v>521</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>541</v>
+        <v>521</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11355,13 +11196,13 @@
         <v>83</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>232</v>
+        <v>522</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>542</v>
+        <v>523</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>543</v>
+        <v>524</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11412,7 +11253,7 @@
         <v>83</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>541</v>
+        <v>521</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>81</v>
@@ -11427,16 +11268,16 @@
         <v>103</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>83</v>
+        <v>525</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>83</v>
+        <v>518</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>544</v>
+        <v>526</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>403</v>
+        <v>83</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>83</v>
@@ -11444,21 +11285,21 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>545</v>
+        <v>527</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>545</v>
+        <v>527</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>83</v>
+        <v>528</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>83</v>
@@ -11470,15 +11311,17 @@
         <v>83</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>481</v>
+        <v>529</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="N80" s="2"/>
+        <v>531</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>532</v>
+      </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>83</v>
@@ -11527,13 +11370,13 @@
         <v>83</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>545</v>
+        <v>527</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>83</v>
@@ -11545,10 +11388,10 @@
         <v>83</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>548</v>
+        <v>83</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>549</v>
+        <v>533</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>83</v>
@@ -11559,10 +11402,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>550</v>
+        <v>534</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>550</v>
+        <v>534</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11573,7 +11416,7 @@
         <v>81</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>83</v>
@@ -11585,15 +11428,17 @@
         <v>83</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>175</v>
+        <v>535</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>176</v>
+        <v>536</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N81" s="2"/>
+        <v>537</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>538</v>
+      </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>83</v>
@@ -11642,965 +11487,33 @@
         <v>83</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>178</v>
+        <v>534</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>83</v>
+        <v>539</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>179</v>
+        <v>540</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AO81" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="B82" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="C82" s="2"/>
-      <c r="D82" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="E82" s="2"/>
-      <c r="F82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O82" s="2"/>
-      <c r="P82" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q82" s="2"/>
-      <c r="R82" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AO82" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="B83" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="C83" s="2"/>
-      <c r="D83" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="E83" s="2"/>
-      <c r="F83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="P83" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q83" s="2"/>
-      <c r="R83" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AO83" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="B84" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="C84" s="2"/>
-      <c r="D84" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="E84" s="2"/>
-      <c r="F84" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="O84" s="2"/>
-      <c r="P84" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q84" s="2"/>
-      <c r="R84" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="AC84" s="2"/>
-      <c r="AD84" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AO84" t="s" s="2">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="B85" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="C85" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="D85" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="E85" s="2"/>
-      <c r="F85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="O85" s="2"/>
-      <c r="P85" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q85" s="2"/>
-      <c r="R85" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="Y85" s="2"/>
-      <c r="Z85" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AO85" t="s" s="2">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="B86" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="C86" s="2"/>
-      <c r="D86" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="E86" s="2"/>
-      <c r="F86" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J86" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="N86" s="2"/>
-      <c r="O86" s="2"/>
-      <c r="P86" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q86" s="2"/>
-      <c r="R86" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S86" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AO86" t="s" s="2">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="B87" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="C87" s="2"/>
-      <c r="D87" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="E87" s="2"/>
-      <c r="F87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="N87" s="2"/>
-      <c r="O87" s="2"/>
-      <c r="P87" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q87" s="2"/>
-      <c r="R87" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AO87" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="B88" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="C88" s="2"/>
-      <c r="D88" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="E88" s="2"/>
-      <c r="F88" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="O88" s="2"/>
-      <c r="P88" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q88" s="2"/>
-      <c r="R88" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="AN88" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AO88" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="B89" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="C89" s="2"/>
-      <c r="D89" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="E89" s="2"/>
-      <c r="F89" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="O89" s="2"/>
-      <c r="P89" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q89" s="2"/>
-      <c r="R89" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="AN89" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AO89" t="s" s="2">
         <v>83</v>
       </c>
     </row>
